--- a/dc_srv/src/main/resources/export/easylife_dw导出_2020-08-27.xlsx
+++ b/dc_srv/src/main/resources/export/easylife_dw导出_2020-08-27.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="46">
   <si>
     <t>表名</t>
   </si>
